--- a/sample_apps/simple_en/simple-scenario-en.xlsx
+++ b/sample_apps/simple_en/simple-scenario-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-next\sample_apps\simple_en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1CF010-769B-42B8-B79E-E3C49B634B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE70FF6C-3769-40C3-AF0F-319104208256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1485" windowWidth="21600" windowHeight="11295" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>conditions</t>
     <phoneticPr fontId="1"/>
@@ -91,146 +91,146 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>I like roast beef sandwiches.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I prefer pasta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I understand. Thank you for your time.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>actions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tell-like-specific-sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I like tomato and egg sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new-sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I like it because I like beef.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#initial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#final</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sorry, I encounterd an error.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I like egg salad sandwiches.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Because I like eggs.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>system utterance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user utterance example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>next state</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user utterance type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I like egg salad sandwich, too! Could you tell me why you like {topic_sandwich}?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You like {topic_sandwich}!  Could you tell me why you like {topic_sandwich}?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maybe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Any sandwich is fine with me.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>That kind of sandwich is new to me. Thank you for the information. Could you tell me what it's like?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>huh?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#final_agree</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I agree. Thank you for your time.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_eq(#favorite-sandwich, "egg salad sandwich")</t>
+  </si>
+  <si>
+    <t>_set(&amp;topic_sandwich, #favorite-sandwich)</t>
+  </si>
+  <si>
+    <t>is_known_sandwich(#favorite-sandwich)</t>
+  </si>
+  <si>
+    <t>_set(&amp;topic_sandwich,#favorite-sandwich)</t>
+  </si>
+  <si>
+    <t>egg-salad-sandwich</t>
+  </si>
+  <si>
+    <t>known-sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>is_novel_sandwich(#favorite-sandwich)</t>
+  </si>
+  <si>
     <t>what kind of sandwich do you like?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I like roast beef sandwiches.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I prefer pasta</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I understand. Thank you for your time.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>actions</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>tell-like-specific-sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I like tomato and egg sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>new-sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I like it because I like beef.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#initial</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#final</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#error</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sorry, I encounterd an error.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I like egg salad sandwiches.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Because I like eggs.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>system utterance</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user utterance example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>next state</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user utterance type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I like egg salad sandwich, too! Could you tell me why you like {topic_sandwich}?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>You like {topic_sandwich}!  Could you tell me why you like {topic_sandwich}?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>maybe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Any sandwich is fine with me.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>That kind of sandwich is new to me. Thank you for the information. Could you tell me what it's like?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>huh?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#final_agree</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I agree. Thank you for your time.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_eq(#favorite-sandwich, "egg salad sandwich")</t>
-  </si>
-  <si>
-    <t>_set(&amp;topic_sandwich, #favorite-sandwich)</t>
-  </si>
-  <si>
-    <t>is_known_sandwich(#favorite-sandwich)</t>
-  </si>
-  <si>
-    <t>_set(&amp;topic_sandwich,#favorite-sandwich)</t>
-  </si>
-  <si>
-    <t>egg-salad-sandwich</t>
-  </si>
-  <si>
-    <t>egg-salad-sandwich</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>known-sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>is_novel_sandwich(#favorite-sandwich)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D1DC6-E066-4D71-9ECD-01107058A46B}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25"/>
@@ -713,33 +713,33 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="42.75">
       <c r="A2" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>3</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -778,14 +778,14 @@
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -796,7 +796,7 @@
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1">
       <c r="A5" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -818,14 +818,14 @@
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1">
       <c r="A6" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -836,7 +836,7 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="28.5">
       <c r="A7" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>9</v>
@@ -845,172 +845,172 @@
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="28.5">
       <c r="A8" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="28.5">
       <c r="A9" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="28.5">
       <c r="A10" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="28.5">
       <c r="A11" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="42.75">
       <c r="A12" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="28.5">
       <c r="A13" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="28.5">
       <c r="A14" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="7" customFormat="1">
       <c r="A15" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="16"/>
@@ -1020,13 +1020,13 @@
     </row>
     <row r="16" spans="1:8" s="5" customFormat="1">
       <c r="A16" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
@@ -1036,13 +1036,13 @@
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="10"/>
